--- a/pred_ohlcv/54/2019-11-02 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-02 MXC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="C2" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="D2" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="E2" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="F2" t="n">
-        <v>22351.31086142322</v>
+        <v>40010</v>
       </c>
       <c r="G2" t="n">
-        <v>2.654166666666666</v>
+        <v>2.653333333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="C3" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="D3" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="E3" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="F3" t="n">
-        <v>22351.3108</v>
+        <v>22351.31086142322</v>
       </c>
       <c r="G3" t="n">
         <v>2.654166666666666</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>2.63</v>
       </c>
       <c r="F4" t="n">
-        <v>4271.56</v>
+        <v>22351.3108</v>
       </c>
       <c r="G4" t="n">
-        <v>2.653166666666666</v>
+        <v>2.654166666666666</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,21 +503,24 @@
         <v>2.63</v>
       </c>
       <c r="C5" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="D5" t="n">
         <v>2.63</v>
       </c>
       <c r="E5" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>4271.56</v>
       </c>
       <c r="G5" t="n">
-        <v>2.650833333333332</v>
+        <v>2.653166666666666</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="C6" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="D6" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="E6" t="n">
         <v>2.55</v>
       </c>
       <c r="F6" t="n">
-        <v>191028.6276</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>2.649999999999999</v>
+        <v>2.650833333333332</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="C7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="D7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="E7" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="F7" t="n">
-        <v>1039.7884</v>
+        <v>191028.6276</v>
       </c>
       <c r="G7" t="n">
-        <v>2.648666666666666</v>
+        <v>2.649999999999999</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="C8" t="n">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="D8" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="E8" t="n">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="F8" t="n">
-        <v>465436.4895</v>
+        <v>1039.7884</v>
       </c>
       <c r="G8" t="n">
-        <v>2.645333333333332</v>
+        <v>2.648666666666666</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="C9" t="n">
-        <v>2.56</v>
+        <v>2.51</v>
       </c>
       <c r="D9" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="E9" t="n">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="F9" t="n">
-        <v>60000</v>
+        <v>465436.4895</v>
       </c>
       <c r="G9" t="n">
-        <v>2.643333333333332</v>
+        <v>2.645333333333332</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="C10" t="n">
         <v>2.56</v>
@@ -625,15 +654,18 @@
         <v>2.56</v>
       </c>
       <c r="E10" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F10" t="n">
-        <v>81056.893</v>
+        <v>60000</v>
       </c>
       <c r="G10" t="n">
-        <v>2.641499999999999</v>
+        <v>2.643333333333332</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>2.56</v>
       </c>
       <c r="F11" t="n">
-        <v>100000</v>
+        <v>81056.893</v>
       </c>
       <c r="G11" t="n">
-        <v>2.639666666666666</v>
+        <v>2.641499999999999</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="C12" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="D12" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="E12" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F12" t="n">
-        <v>954.1176</v>
+        <v>100000</v>
       </c>
       <c r="G12" t="n">
-        <v>2.637666666666667</v>
+        <v>2.639666666666666</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="C13" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="D13" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="E13" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="F13" t="n">
-        <v>3051.9803</v>
+        <v>954.1176</v>
       </c>
       <c r="G13" t="n">
-        <v>2.6365</v>
+        <v>2.637666666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="C14" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="D14" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="E14" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>3051.9803</v>
       </c>
       <c r="G14" t="n">
-        <v>2.634833333333333</v>
+        <v>2.6365</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.51</v>
+        <v>2.57</v>
       </c>
       <c r="C15" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="D15" t="n">
-        <v>2.51</v>
+        <v>2.57</v>
       </c>
       <c r="E15" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="F15" t="n">
-        <v>443756.3512</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="n">
-        <v>2.631166666666667</v>
+        <v>2.634833333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>2.51</v>
       </c>
       <c r="C16" t="n">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="D16" t="n">
         <v>2.51</v>
       </c>
       <c r="E16" t="n">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="F16" t="n">
-        <v>804639</v>
+        <v>443756.3512</v>
       </c>
       <c r="G16" t="n">
-        <v>2.629333333333333</v>
+        <v>2.631166666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>2.51</v>
       </c>
       <c r="F17" t="n">
-        <v>540854</v>
+        <v>804639</v>
       </c>
       <c r="G17" t="n">
-        <v>2.6265</v>
+        <v>2.629333333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="C18" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="E18" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="F18" t="n">
-        <v>267000</v>
+        <v>540854</v>
       </c>
       <c r="G18" t="n">
-        <v>2.624</v>
+        <v>2.6265</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="C19" t="n">
         <v>2.5</v>
       </c>
       <c r="D19" t="n">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
         <v>2.5</v>
       </c>
       <c r="F19" t="n">
-        <v>80000</v>
+        <v>267000</v>
       </c>
       <c r="G19" t="n">
-        <v>2.620833333333333</v>
+        <v>2.624</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.54</v>
+        <v>2.51</v>
       </c>
       <c r="C20" t="n">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="D20" t="n">
-        <v>2.59</v>
+        <v>2.51</v>
       </c>
       <c r="E20" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="F20" t="n">
-        <v>220000</v>
+        <v>80000</v>
       </c>
       <c r="G20" t="n">
-        <v>2.619166666666666</v>
+        <v>2.620833333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="C21" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="D21" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="E21" t="n">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="F21" t="n">
-        <v>190.7858</v>
+        <v>220000</v>
       </c>
       <c r="G21" t="n">
-        <v>2.6165</v>
+        <v>2.619166666666666</v>
       </c>
       <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="C22" t="n">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="D22" t="n">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="E22" t="n">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="F22" t="n">
-        <v>5242.2727</v>
+        <v>190.7858</v>
       </c>
       <c r="G22" t="n">
-        <v>2.614666666666666</v>
+        <v>2.6165</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,21 +1025,24 @@
         <v>2.51</v>
       </c>
       <c r="C23" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="D23" t="n">
         <v>2.51</v>
       </c>
       <c r="E23" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="F23" t="n">
-        <v>343378.3133</v>
+        <v>5242.2727</v>
       </c>
       <c r="G23" t="n">
-        <v>2.612499999999999</v>
+        <v>2.614666666666666</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C24" t="n">
         <v>2.5</v>
       </c>
-      <c r="C24" t="n">
-        <v>2.57</v>
-      </c>
       <c r="D24" t="n">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="E24" t="n">
         <v>2.5</v>
       </c>
       <c r="F24" t="n">
-        <v>106099.3223</v>
+        <v>343378.3133</v>
       </c>
       <c r="G24" t="n">
-        <v>2.610666666666666</v>
+        <v>2.612499999999999</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1080,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="C25" t="n">
         <v>2.57</v>
@@ -1015,15 +1089,18 @@
         <v>2.57</v>
       </c>
       <c r="E25" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="F25" t="n">
-        <v>200000</v>
+        <v>106099.3223</v>
       </c>
       <c r="G25" t="n">
         <v>2.610666666666666</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,21 +1112,24 @@
         <v>2.57</v>
       </c>
       <c r="C26" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="D26" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="E26" t="n">
         <v>2.57</v>
       </c>
       <c r="F26" t="n">
-        <v>2973449.997</v>
+        <v>200000</v>
       </c>
       <c r="G26" t="n">
-        <v>2.608166666666666</v>
+        <v>2.610666666666666</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,7 +1138,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="C27" t="n">
         <v>2.62</v>
@@ -1067,15 +1147,18 @@
         <v>2.63</v>
       </c>
       <c r="E27" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="F27" t="n">
-        <v>101633.7253</v>
+        <v>2973449.997</v>
       </c>
       <c r="G27" t="n">
-        <v>2.605499999999999</v>
+        <v>2.608166666666666</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1090,19 +1173,22 @@
         <v>2.62</v>
       </c>
       <c r="D28" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="E28" t="n">
         <v>2.62</v>
       </c>
       <c r="F28" t="n">
-        <v>20000</v>
+        <v>101633.7253</v>
       </c>
       <c r="G28" t="n">
-        <v>2.604999999999999</v>
+        <v>2.605499999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="C29" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="D29" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="E29" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="F29" t="n">
-        <v>328558.0982</v>
+        <v>20000</v>
       </c>
       <c r="G29" t="n">
-        <v>2.604</v>
+        <v>2.604999999999999</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="C30" t="n">
         <v>2.61</v>
       </c>
       <c r="D30" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="E30" t="n">
         <v>2.61</v>
       </c>
       <c r="F30" t="n">
-        <v>40000</v>
+        <v>328558.0982</v>
       </c>
       <c r="G30" t="n">
-        <v>2.603833333333333</v>
+        <v>2.604</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="C31" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="D31" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="E31" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="F31" t="n">
-        <v>13992.5046</v>
+        <v>40000</v>
       </c>
       <c r="G31" t="n">
-        <v>2.603666666666666</v>
+        <v>2.603833333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="C32" t="n">
         <v>2.64</v>
       </c>
       <c r="D32" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="E32" t="n">
         <v>2.64</v>
       </c>
       <c r="F32" t="n">
-        <v>140000</v>
+        <v>13992.5046</v>
       </c>
       <c r="G32" t="n">
-        <v>2.603833333333333</v>
+        <v>2.603666666666666</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C33" t="n">
         <v>2.64</v>
       </c>
-      <c r="C33" t="n">
-        <v>2.61</v>
-      </c>
       <c r="D33" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E33" t="n">
         <v>2.64</v>
       </c>
-      <c r="E33" t="n">
-        <v>2.61</v>
-      </c>
       <c r="F33" t="n">
-        <v>1110429.4484</v>
+        <v>140000</v>
       </c>
       <c r="G33" t="n">
-        <v>2.603166666666666</v>
+        <v>2.603833333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="C34" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="D34" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="E34" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="F34" t="n">
-        <v>80000</v>
+        <v>1110429.4484</v>
       </c>
       <c r="G34" t="n">
-        <v>2.602666666666666</v>
+        <v>2.603166666666666</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,21 +1373,24 @@
         <v>2.62</v>
       </c>
       <c r="C35" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="D35" t="n">
         <v>2.62</v>
       </c>
       <c r="E35" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="F35" t="n">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="G35" t="n">
-        <v>2.602166666666667</v>
+        <v>2.602666666666666</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C36" t="n">
         <v>2.61</v>
       </c>
-      <c r="C36" t="n">
-        <v>2.58</v>
-      </c>
       <c r="D36" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E36" t="n">
         <v>2.61</v>
       </c>
-      <c r="E36" t="n">
-        <v>2.58</v>
-      </c>
       <c r="F36" t="n">
-        <v>371253.0617</v>
+        <v>120000</v>
       </c>
       <c r="G36" t="n">
-        <v>2.601166666666667</v>
+        <v>2.602166666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.69</v>
+        <v>2.61</v>
       </c>
       <c r="C37" t="n">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
       <c r="D37" t="n">
-        <v>2.69</v>
+        <v>2.61</v>
       </c>
       <c r="E37" t="n">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
       <c r="F37" t="n">
-        <v>10231.2267</v>
+        <v>371253.0617</v>
       </c>
       <c r="G37" t="n">
-        <v>2.602833333333334</v>
+        <v>2.601166666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1347,21 +1460,24 @@
         <v>2.69</v>
       </c>
       <c r="C38" t="n">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="D38" t="n">
         <v>2.69</v>
       </c>
       <c r="E38" t="n">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="F38" t="n">
-        <v>10973.9025</v>
+        <v>10231.2267</v>
       </c>
       <c r="G38" t="n">
-        <v>2.602000000000001</v>
+        <v>2.602833333333334</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="C39" t="n">
         <v>2.58</v>
       </c>
       <c r="D39" t="n">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="E39" t="n">
         <v>2.58</v>
       </c>
       <c r="F39" t="n">
-        <v>451.2048</v>
+        <v>10973.9025</v>
       </c>
       <c r="G39" t="n">
-        <v>2.601833333333334</v>
+        <v>2.602000000000001</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>2.58</v>
       </c>
       <c r="C40" t="n">
-        <v>2.45</v>
+        <v>2.58</v>
       </c>
       <c r="D40" t="n">
         <v>2.58</v>
       </c>
       <c r="E40" t="n">
-        <v>2.45</v>
+        <v>2.58</v>
       </c>
       <c r="F40" t="n">
-        <v>342301.349</v>
+        <v>451.2048</v>
       </c>
       <c r="G40" t="n">
-        <v>2.598</v>
+        <v>2.601833333333334</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="C41" t="n">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="D41" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="E41" t="n">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="F41" t="n">
-        <v>32213.10861423221</v>
+        <v>342301.349</v>
       </c>
       <c r="G41" t="n">
-        <v>2.599</v>
+        <v>2.598</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.51</v>
+        <v>2.67</v>
       </c>
       <c r="C42" t="n">
-        <v>2.51</v>
+        <v>2.67</v>
       </c>
       <c r="D42" t="n">
-        <v>2.51</v>
+        <v>2.67</v>
       </c>
       <c r="E42" t="n">
-        <v>2.51</v>
+        <v>2.67</v>
       </c>
       <c r="F42" t="n">
-        <v>8572.8927</v>
+        <v>32213.10861423221</v>
       </c>
       <c r="G42" t="n">
-        <v>2.597333333333333</v>
+        <v>2.599</v>
       </c>
       <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.67</v>
+        <v>2.51</v>
       </c>
       <c r="C43" t="n">
-        <v>2.68</v>
+        <v>2.51</v>
       </c>
       <c r="D43" t="n">
-        <v>2.68</v>
+        <v>2.51</v>
       </c>
       <c r="E43" t="n">
-        <v>2.67</v>
+        <v>2.51</v>
       </c>
       <c r="F43" t="n">
-        <v>8581</v>
+        <v>8572.8927</v>
       </c>
       <c r="G43" t="n">
-        <v>2.598166666666666</v>
+        <v>2.597333333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="C44" t="n">
-        <v>2.71</v>
+        <v>2.68</v>
       </c>
       <c r="D44" t="n">
-        <v>2.71</v>
+        <v>2.68</v>
       </c>
       <c r="E44" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="F44" t="n">
-        <v>103574</v>
+        <v>8581</v>
       </c>
       <c r="G44" t="n">
-        <v>2.6</v>
+        <v>2.598166666666666</v>
       </c>
       <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C45" t="n">
         <v>2.71</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2.51</v>
       </c>
       <c r="D45" t="n">
         <v>2.71</v>
       </c>
       <c r="E45" t="n">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="F45" t="n">
-        <v>2195</v>
+        <v>103574</v>
       </c>
       <c r="G45" t="n">
-        <v>2.598166666666666</v>
+        <v>2.6</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.47</v>
+        <v>2.71</v>
       </c>
       <c r="C46" t="n">
-        <v>2.47</v>
+        <v>2.51</v>
       </c>
       <c r="D46" t="n">
-        <v>2.47</v>
+        <v>2.71</v>
       </c>
       <c r="E46" t="n">
-        <v>2.47</v>
+        <v>2.51</v>
       </c>
       <c r="F46" t="n">
-        <v>90.25</v>
+        <v>2195</v>
       </c>
       <c r="G46" t="n">
-        <v>2.5955</v>
+        <v>2.598166666666666</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="C47" t="n">
-        <v>2.71</v>
+        <v>2.47</v>
       </c>
       <c r="D47" t="n">
-        <v>2.71</v>
+        <v>2.47</v>
       </c>
       <c r="E47" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="F47" t="n">
-        <v>324842.5246</v>
+        <v>90.25</v>
       </c>
       <c r="G47" t="n">
-        <v>2.596833333333334</v>
+        <v>2.5955</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,21 +1750,24 @@
         <v>2.55</v>
       </c>
       <c r="C48" t="n">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="D48" t="n">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="E48" t="n">
         <v>2.55</v>
       </c>
       <c r="F48" t="n">
-        <v>857.375</v>
+        <v>324842.5246</v>
       </c>
       <c r="G48" t="n">
-        <v>2.596166666666667</v>
+        <v>2.596833333333334</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="C49" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="D49" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="E49" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="F49" t="n">
-        <v>14972.877</v>
+        <v>857.375</v>
       </c>
       <c r="G49" t="n">
-        <v>2.595333333333334</v>
+        <v>2.596166666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="C50" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="D50" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="E50" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="F50" t="n">
-        <v>45000</v>
+        <v>14972.877</v>
       </c>
       <c r="G50" t="n">
-        <v>2.593666666666667</v>
+        <v>2.595333333333334</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="C51" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="D51" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="E51" t="n">
         <v>2.63</v>
       </c>
       <c r="F51" t="n">
-        <v>200000</v>
+        <v>45000</v>
       </c>
       <c r="G51" t="n">
-        <v>2.593333333333334</v>
+        <v>2.593666666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="C52" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="D52" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="E52" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="F52" t="n">
-        <v>428.6875</v>
+        <v>200000</v>
       </c>
       <c r="G52" t="n">
-        <v>2.593000000000001</v>
+        <v>2.593333333333334</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="C53" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="D53" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="E53" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="F53" t="n">
-        <v>214.3437</v>
+        <v>428.6875</v>
       </c>
       <c r="G53" t="n">
-        <v>2.592000000000001</v>
+        <v>2.593000000000001</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="C54" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="D54" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="E54" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="F54" t="n">
-        <v>642.8383</v>
+        <v>214.3437</v>
       </c>
       <c r="G54" t="n">
-        <v>2.591833333333335</v>
+        <v>2.592000000000001</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="C55" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="D55" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="E55" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="F55" t="n">
-        <v>80000</v>
+        <v>642.8383</v>
       </c>
       <c r="G55" t="n">
-        <v>2.591666666666668</v>
+        <v>2.591833333333335</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="C56" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="D56" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="E56" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="F56" t="n">
-        <v>118832.8525</v>
+        <v>80000</v>
       </c>
       <c r="G56" t="n">
-        <v>2.590833333333334</v>
+        <v>2.591666666666668</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="C57" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="D57" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="E57" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="F57" t="n">
-        <v>1518</v>
+        <v>118832.8525</v>
       </c>
       <c r="G57" t="n">
-        <v>2.591166666666667</v>
+        <v>2.590833333333334</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>2.63</v>
       </c>
       <c r="C58" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="D58" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="E58" t="n">
         <v>2.63</v>
       </c>
       <c r="F58" t="n">
-        <v>48597</v>
+        <v>1518</v>
       </c>
       <c r="G58" t="n">
-        <v>2.590333333333334</v>
+        <v>2.591166666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="C59" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="D59" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="E59" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="F59" t="n">
-        <v>726573.9911</v>
+        <v>48597</v>
       </c>
       <c r="G59" t="n">
         <v>2.590333333333334</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C60" t="n">
         <v>2.68</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2.67</v>
       </c>
       <c r="D60" t="n">
         <v>2.68</v>
       </c>
       <c r="E60" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="F60" t="n">
-        <v>561626.8998</v>
+        <v>726573.9911</v>
       </c>
       <c r="G60" t="n">
-        <v>2.591333333333333</v>
+        <v>2.590333333333334</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="C61" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="D61" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="E61" t="n">
         <v>2.63</v>
       </c>
       <c r="F61" t="n">
-        <v>6074.3925</v>
+        <v>561626.8998</v>
       </c>
       <c r="G61" t="n">
-        <v>2.592666666666666</v>
+        <v>2.591333333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="C62" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="D62" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="E62" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="F62" t="n">
-        <v>195680.6506</v>
+        <v>6074.3925</v>
       </c>
       <c r="G62" t="n">
-        <v>2.592166666666666</v>
+        <v>2.592666666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="C63" t="n">
         <v>2.64</v>
       </c>
       <c r="D63" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="E63" t="n">
         <v>2.64</v>
       </c>
       <c r="F63" t="n">
-        <v>40000</v>
+        <v>195680.6506</v>
       </c>
       <c r="G63" t="n">
-        <v>2.592333333333333</v>
+        <v>2.592166666666666</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="C64" t="n">
         <v>2.64</v>
       </c>
       <c r="D64" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="E64" t="n">
         <v>2.64</v>
       </c>
       <c r="F64" t="n">
-        <v>204135.4531</v>
+        <v>40000</v>
       </c>
       <c r="G64" t="n">
-        <v>2.592499999999999</v>
+        <v>2.592333333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="C65" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="D65" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="E65" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="F65" t="n">
-        <v>1055567.844997407</v>
+        <v>204135.4531</v>
       </c>
       <c r="G65" t="n">
-        <v>2.594999999999999</v>
+        <v>2.592499999999999</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="C66" t="n">
-        <v>2.59</v>
+        <v>2.7</v>
       </c>
       <c r="D66" t="n">
-        <v>2.59</v>
+        <v>2.7</v>
       </c>
       <c r="E66" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="F66" t="n">
-        <v>835.2289</v>
+        <v>1055567.844997407</v>
       </c>
       <c r="G66" t="n">
-        <v>2.594499999999999</v>
+        <v>2.594999999999999</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="C67" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D67" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="E67" t="n">
         <v>2.57</v>
       </c>
       <c r="F67" t="n">
-        <v>140341.6846</v>
+        <v>835.2289</v>
       </c>
       <c r="G67" t="n">
-        <v>2.593999999999999</v>
+        <v>2.594499999999999</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="C68" t="n">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="D68" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="E68" t="n">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="F68" t="n">
-        <v>180000</v>
+        <v>140341.6846</v>
       </c>
       <c r="G68" t="n">
-        <v>2.596499999999999</v>
+        <v>2.593999999999999</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="C69" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="D69" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="E69" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="F69" t="n">
-        <v>100213.5529</v>
+        <v>180000</v>
       </c>
       <c r="G69" t="n">
         <v>2.596499999999999</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="C70" t="n">
-        <v>2.19</v>
+        <v>2.56</v>
       </c>
       <c r="D70" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="E70" t="n">
-        <v>2.19</v>
+        <v>2.56</v>
       </c>
       <c r="F70" t="n">
-        <v>2647712.8296</v>
+        <v>100213.5529</v>
       </c>
       <c r="G70" t="n">
-        <v>2.590333333333332</v>
+        <v>2.596499999999999</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="C71" t="n">
-        <v>2.64</v>
+        <v>2.19</v>
       </c>
       <c r="D71" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="E71" t="n">
-        <v>2.58</v>
+        <v>2.19</v>
       </c>
       <c r="F71" t="n">
-        <v>100000</v>
+        <v>2647712.8296</v>
       </c>
       <c r="G71" t="n">
-        <v>2.591666666666665</v>
+        <v>2.590333333333332</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.32</v>
+        <v>2.59</v>
       </c>
       <c r="C72" t="n">
-        <v>2.32</v>
+        <v>2.64</v>
       </c>
       <c r="D72" t="n">
-        <v>2.32</v>
+        <v>2.64</v>
       </c>
       <c r="E72" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="F72" t="n">
-        <v>128.1318</v>
+        <v>100000</v>
       </c>
       <c r="G72" t="n">
-        <v>2.587833333333331</v>
+        <v>2.591666666666665</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.64</v>
+        <v>2.32</v>
       </c>
       <c r="C73" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="D73" t="n">
-        <v>2.64</v>
+        <v>2.32</v>
       </c>
       <c r="E73" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="F73" t="n">
-        <v>2009</v>
+        <v>128.1318</v>
       </c>
       <c r="G73" t="n">
-        <v>2.582166666666665</v>
+        <v>2.587833333333331</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="C74" t="n">
-        <v>2.58</v>
+        <v>2.26</v>
       </c>
       <c r="D74" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="E74" t="n">
-        <v>2.57</v>
+        <v>2.26</v>
       </c>
       <c r="F74" t="n">
-        <v>20000</v>
+        <v>2009</v>
       </c>
       <c r="G74" t="n">
-        <v>2.582333333333332</v>
+        <v>2.582166666666665</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="C75" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="D75" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="E75" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="F75" t="n">
-        <v>45238.9763</v>
+        <v>20000</v>
       </c>
       <c r="G75" t="n">
-        <v>2.582999999999998</v>
+        <v>2.582333333333332</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>2.53</v>
       </c>
       <c r="C76" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="D76" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="E76" t="n">
         <v>2.53</v>
       </c>
       <c r="F76" t="n">
-        <v>220000</v>
+        <v>45238.9763</v>
       </c>
       <c r="G76" t="n">
-        <v>2.583833333333332</v>
+        <v>2.582999999999998</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,21 +2591,24 @@
         <v>2.53</v>
       </c>
       <c r="C77" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="D77" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="E77" t="n">
         <v>2.53</v>
       </c>
       <c r="F77" t="n">
-        <v>39525.69169960474</v>
+        <v>220000</v>
       </c>
       <c r="G77" t="n">
-        <v>2.584166666666666</v>
+        <v>2.583833333333332</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2387,21 +2620,24 @@
         <v>2.53</v>
       </c>
       <c r="C78" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="D78" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="E78" t="n">
         <v>2.53</v>
       </c>
       <c r="F78" t="n">
-        <v>80000</v>
+        <v>39525.69169960474</v>
       </c>
       <c r="G78" t="n">
-        <v>2.585166666666666</v>
+        <v>2.584166666666666</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,7 +2646,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="C79" t="n">
         <v>2.56</v>
@@ -2419,15 +2655,18 @@
         <v>2.56</v>
       </c>
       <c r="E79" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="F79" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="G79" t="n">
-        <v>2.586166666666665</v>
+        <v>2.585166666666666</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,21 +2678,24 @@
         <v>2.56</v>
       </c>
       <c r="C80" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="D80" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="E80" t="n">
         <v>2.56</v>
       </c>
       <c r="F80" t="n">
-        <v>360000</v>
+        <v>60000</v>
       </c>
       <c r="G80" t="n">
-        <v>2.585833333333332</v>
+        <v>2.586166666666665</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,7 +2704,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="C81" t="n">
         <v>2.57</v>
@@ -2471,15 +2713,18 @@
         <v>2.57</v>
       </c>
       <c r="E81" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F81" t="n">
-        <v>108434.6303</v>
+        <v>360000</v>
       </c>
       <c r="G81" t="n">
-        <v>2.586499999999999</v>
+        <v>2.585833333333332</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2497,15 +2742,18 @@
         <v>2.57</v>
       </c>
       <c r="E82" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="F82" t="n">
-        <v>383058.2567</v>
+        <v>108434.6303</v>
       </c>
       <c r="G82" t="n">
-        <v>2.587499999999999</v>
+        <v>2.586499999999999</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,7 +2762,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C83" t="n">
         <v>2.57</v>
@@ -2523,15 +2771,18 @@
         <v>2.57</v>
       </c>
       <c r="E83" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="F83" t="n">
-        <v>267720.6225</v>
+        <v>383058.2567</v>
       </c>
       <c r="G83" t="n">
-        <v>2.588666666666665</v>
+        <v>2.587499999999999</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="C84" t="n">
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="D84" t="n">
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="E84" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="F84" t="n">
-        <v>11388.4944</v>
+        <v>267720.6225</v>
       </c>
       <c r="G84" t="n">
-        <v>2.586499999999999</v>
+        <v>2.588666666666665</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="C85" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="D85" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="E85" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>11388.4944</v>
       </c>
       <c r="G85" t="n">
-        <v>2.583999999999998</v>
+        <v>2.586499999999999</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="C86" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="D86" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="E86" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="F86" t="n">
-        <v>19260.5066</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>2.581333333333332</v>
+        <v>2.583999999999998</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="C87" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="D87" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="E87" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="F87" t="n">
-        <v>19289</v>
+        <v>19260.5066</v>
       </c>
       <c r="G87" t="n">
-        <v>2.580333333333332</v>
+        <v>2.581333333333332</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="C88" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="D88" t="n">
         <v>2.56</v>
       </c>
       <c r="E88" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="F88" t="n">
-        <v>1189959.0294</v>
+        <v>19289</v>
       </c>
       <c r="G88" t="n">
-        <v>2.576333333333332</v>
+        <v>2.580333333333332</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.39</v>
+        <v>2.48</v>
       </c>
       <c r="C89" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="D89" t="n">
-        <v>2.39</v>
+        <v>2.56</v>
       </c>
       <c r="E89" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="F89" t="n">
-        <v>267051.3209</v>
+        <v>1189959.0294</v>
       </c>
       <c r="G89" t="n">
-        <v>2.572333333333332</v>
+        <v>2.576333333333332</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="C90" t="n">
-        <v>2.49</v>
+        <v>2.37</v>
       </c>
       <c r="D90" t="n">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="E90" t="n">
-        <v>2.49</v>
+        <v>2.37</v>
       </c>
       <c r="F90" t="n">
-        <v>78790</v>
+        <v>267051.3209</v>
       </c>
       <c r="G90" t="n">
-        <v>2.570333333333331</v>
+        <v>2.572333333333332</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="C91" t="n">
-        <v>2.47</v>
+        <v>2.49</v>
       </c>
       <c r="D91" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="E91" t="n">
-        <v>2.46</v>
+        <v>2.49</v>
       </c>
       <c r="F91" t="n">
-        <v>782328</v>
+        <v>78790</v>
       </c>
       <c r="G91" t="n">
-        <v>2.567499999999998</v>
+        <v>2.570333333333331</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.53</v>
+        <v>2.46</v>
       </c>
       <c r="C92" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="D92" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="E92" t="n">
-        <v>2.53</v>
+        <v>2.46</v>
       </c>
       <c r="F92" t="n">
-        <v>118818</v>
+        <v>782328</v>
       </c>
       <c r="G92" t="n">
-        <v>2.566166666666665</v>
+        <v>2.567499999999998</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,25 +3052,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="C93" t="n">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
       <c r="D93" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="E93" t="n">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="F93" t="n">
-        <v>290357.1415</v>
+        <v>118818</v>
       </c>
       <c r="G93" t="n">
-        <v>2.562833333333332</v>
+        <v>2.566166666666665</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2803,22 +3084,25 @@
         <v>2.46</v>
       </c>
       <c r="C94" t="n">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="D94" t="n">
         <v>2.46</v>
       </c>
       <c r="E94" t="n">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="F94" t="n">
-        <v>82454.7133</v>
+        <v>290357.1415</v>
       </c>
       <c r="G94" t="n">
-        <v>2.560166666666665</v>
+        <v>2.562833333333332</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2826,25 +3110,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="C95" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="D95" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="E95" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="F95" t="n">
-        <v>38759.68992248062</v>
+        <v>82454.7133</v>
       </c>
       <c r="G95" t="n">
-        <v>2.559666666666665</v>
+        <v>2.560166666666665</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2855,22 +3142,25 @@
         <v>2.58</v>
       </c>
       <c r="C96" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="D96" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="E96" t="n">
         <v>2.58</v>
       </c>
       <c r="F96" t="n">
-        <v>20000</v>
+        <v>38759.68992248062</v>
       </c>
       <c r="G96" t="n">
-        <v>2.559833333333331</v>
+        <v>2.559666666666665</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2878,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="C97" t="n">
         <v>2.59</v>
@@ -2887,16 +3177,19 @@
         <v>2.59</v>
       </c>
       <c r="E97" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="F97" t="n">
         <v>20000</v>
       </c>
       <c r="G97" t="n">
-        <v>2.558166666666665</v>
+        <v>2.559833333333331</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2904,25 +3197,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C98" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="D98" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="E98" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="F98" t="n">
-        <v>401087</v>
+        <v>20000</v>
       </c>
       <c r="G98" t="n">
-        <v>2.558499999999998</v>
+        <v>2.558166666666665</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2930,25 +3226,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C99" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="D99" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="E99" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="F99" t="n">
-        <v>100000</v>
+        <v>401087</v>
       </c>
       <c r="G99" t="n">
-        <v>2.558666666666665</v>
+        <v>2.558499999999998</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="C100" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D100" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E100" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="F100" t="n">
-        <v>3185</v>
+        <v>100000</v>
       </c>
       <c r="G100" t="n">
-        <v>2.560666666666664</v>
+        <v>2.558666666666665</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="C101" t="n">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="D101" t="n">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="E101" t="n">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="F101" t="n">
-        <v>10820.1173</v>
+        <v>3185</v>
       </c>
       <c r="G101" t="n">
-        <v>2.557499999999998</v>
+        <v>2.560666666666664</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="C102" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="D102" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="E102" t="n">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="F102" t="n">
-        <v>40000</v>
+        <v>10820.1173</v>
       </c>
       <c r="G102" t="n">
-        <v>2.558999999999998</v>
+        <v>2.557499999999998</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C103" t="n">
         <v>2.6</v>
       </c>
-      <c r="C103" t="n">
-        <v>2.61</v>
-      </c>
       <c r="D103" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="E103" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="F103" t="n">
-        <v>60047.3076</v>
+        <v>40000</v>
       </c>
       <c r="G103" t="n">
-        <v>2.557833333333332</v>
+        <v>2.558999999999998</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C104" t="n">
         <v>2.61</v>
       </c>
-      <c r="C104" t="n">
-        <v>2.64</v>
-      </c>
       <c r="D104" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="E104" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="F104" t="n">
-        <v>61653</v>
+        <v>60047.3076</v>
       </c>
       <c r="G104" t="n">
-        <v>2.556666666666664</v>
+        <v>2.557833333333332</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C105" t="n">
         <v>2.64</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2.47</v>
       </c>
       <c r="D105" t="n">
         <v>2.64</v>
       </c>
       <c r="E105" t="n">
-        <v>2.47</v>
+        <v>2.61</v>
       </c>
       <c r="F105" t="n">
-        <v>73662.265</v>
+        <v>61653</v>
       </c>
       <c r="G105" t="n">
-        <v>2.555999999999998</v>
+        <v>2.556666666666664</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,25 +3429,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.55</v>
+        <v>2.64</v>
       </c>
       <c r="C106" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="D106" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="E106" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="F106" t="n">
-        <v>10008</v>
+        <v>73662.265</v>
       </c>
       <c r="G106" t="n">
-        <v>2.558999999999998</v>
+        <v>2.555999999999998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C107" t="n">
         <v>2.65</v>
       </c>
-      <c r="C107" t="n">
-        <v>2.69</v>
-      </c>
       <c r="D107" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="E107" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="F107" t="n">
-        <v>878571.0514282528</v>
+        <v>10008</v>
       </c>
       <c r="G107" t="n">
-        <v>2.558666666666665</v>
+        <v>2.558999999999998</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="C108" t="n">
-        <v>2.73</v>
+        <v>2.69</v>
       </c>
       <c r="D108" t="n">
-        <v>2.73</v>
+        <v>2.69</v>
       </c>
       <c r="E108" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="F108" t="n">
-        <v>1112436.311350199</v>
+        <v>878571.0514282528</v>
       </c>
       <c r="G108" t="n">
-        <v>2.561666666666664</v>
+        <v>2.558666666666665</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,7 +3516,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.73</v>
+        <v>2.51</v>
       </c>
       <c r="C109" t="n">
         <v>2.73</v>
@@ -3199,15 +3525,18 @@
         <v>2.73</v>
       </c>
       <c r="E109" t="n">
-        <v>2.73</v>
+        <v>2.51</v>
       </c>
       <c r="F109" t="n">
-        <v>36630.03663003663</v>
+        <v>1112436.311350199</v>
       </c>
       <c r="G109" t="n">
-        <v>2.564166666666664</v>
+        <v>2.561666666666664</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,13 +3557,16 @@
         <v>2.73</v>
       </c>
       <c r="F110" t="n">
-        <v>800994.0844915113</v>
+        <v>36630.03663003663</v>
       </c>
       <c r="G110" t="n">
-        <v>2.56583333333333</v>
+        <v>2.564166666666664</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3245,21 +3577,24 @@
         <v>2.73</v>
       </c>
       <c r="C111" t="n">
-        <v>2.47</v>
+        <v>2.73</v>
       </c>
       <c r="D111" t="n">
         <v>2.73</v>
       </c>
       <c r="E111" t="n">
-        <v>2.47</v>
+        <v>2.73</v>
       </c>
       <c r="F111" t="n">
-        <v>40000</v>
+        <v>800994.0844915113</v>
       </c>
       <c r="G111" t="n">
-        <v>2.561999999999997</v>
+        <v>2.56583333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,25 +3603,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="C112" t="n">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="D112" t="n">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="E112" t="n">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="F112" t="n">
-        <v>30.5454</v>
+        <v>40000</v>
       </c>
       <c r="G112" t="n">
-        <v>2.564166666666664</v>
+        <v>2.561999999999997</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3297,21 +3635,24 @@
         <v>2.75</v>
       </c>
       <c r="C113" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="D113" t="n">
         <v>2.75</v>
       </c>
       <c r="E113" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="F113" t="n">
-        <v>22</v>
+        <v>30.5454</v>
       </c>
       <c r="G113" t="n">
-        <v>2.563499999999997</v>
+        <v>2.564166666666664</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,10 +3661,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="C114" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="D114" t="n">
         <v>2.75</v>
@@ -3332,13 +3673,16 @@
         <v>2.57</v>
       </c>
       <c r="F114" t="n">
-        <v>140000</v>
+        <v>22</v>
       </c>
       <c r="G114" t="n">
-        <v>2.565666666666663</v>
+        <v>2.563499999999997</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C115" t="n">
         <v>2.75</v>
       </c>
-      <c r="C115" t="n">
-        <v>2.77</v>
-      </c>
       <c r="D115" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="E115" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="F115" t="n">
-        <v>311671.0254</v>
+        <v>140000</v>
       </c>
       <c r="G115" t="n">
-        <v>2.567833333333331</v>
+        <v>2.565666666666663</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C116" t="n">
         <v>2.77</v>
       </c>
-      <c r="C116" t="n">
-        <v>2.76</v>
-      </c>
       <c r="D116" t="n">
-        <v>2.88</v>
+        <v>2.77</v>
       </c>
       <c r="E116" t="n">
-        <v>2.51</v>
+        <v>2.75</v>
       </c>
       <c r="F116" t="n">
-        <v>705290.6627</v>
+        <v>311671.0254</v>
       </c>
       <c r="G116" t="n">
-        <v>2.570499999999997</v>
+        <v>2.567833333333331</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="C117" t="n">
-        <v>2.83</v>
+        <v>2.76</v>
       </c>
       <c r="D117" t="n">
-        <v>2.83</v>
+        <v>2.88</v>
       </c>
       <c r="E117" t="n">
-        <v>2.53</v>
+        <v>2.51</v>
       </c>
       <c r="F117" t="n">
-        <v>215564.7583300353</v>
+        <v>705290.6627</v>
       </c>
       <c r="G117" t="n">
-        <v>2.573833333333331</v>
+        <v>2.570499999999997</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="C118" t="n">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="D118" t="n">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="E118" t="n">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
       <c r="F118" t="n">
-        <v>121</v>
+        <v>215564.7583300353</v>
       </c>
       <c r="G118" t="n">
-        <v>2.576166666666664</v>
+        <v>2.573833333333331</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.61</v>
+        <v>2.8</v>
       </c>
       <c r="C119" t="n">
-        <v>2.61</v>
+        <v>2.8</v>
       </c>
       <c r="D119" t="n">
-        <v>2.61</v>
+        <v>2.8</v>
       </c>
       <c r="E119" t="n">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="F119" t="n">
-        <v>77.6584</v>
+        <v>121</v>
       </c>
       <c r="G119" t="n">
-        <v>2.574999999999998</v>
+        <v>2.576166666666664</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.77</v>
+        <v>2.61</v>
       </c>
       <c r="C120" t="n">
-        <v>2.77</v>
+        <v>2.61</v>
       </c>
       <c r="D120" t="n">
-        <v>2.77</v>
+        <v>2.61</v>
       </c>
       <c r="E120" t="n">
-        <v>2.77</v>
+        <v>2.61</v>
       </c>
       <c r="F120" t="n">
-        <v>99</v>
+        <v>77.6584</v>
       </c>
       <c r="G120" t="n">
-        <v>2.576666666666665</v>
+        <v>2.574999999999998</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2.71</v>
+        <v>2.77</v>
       </c>
       <c r="C121" t="n">
-        <v>2.73</v>
+        <v>2.77</v>
       </c>
       <c r="D121" t="n">
-        <v>2.73</v>
+        <v>2.77</v>
       </c>
       <c r="E121" t="n">
-        <v>2.71</v>
+        <v>2.77</v>
       </c>
       <c r="F121" t="n">
-        <v>103671.5303</v>
+        <v>99</v>
       </c>
       <c r="G121" t="n">
-        <v>2.578333333333331</v>
+        <v>2.576666666666665</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,7 +3893,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="C122" t="n">
         <v>2.73</v>
@@ -3537,15 +3902,18 @@
         <v>2.73</v>
       </c>
       <c r="E122" t="n">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="F122" t="n">
-        <v>18508.0586</v>
+        <v>103671.5303</v>
       </c>
       <c r="G122" t="n">
-        <v>2.579833333333331</v>
+        <v>2.578333333333331</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2.59</v>
+        <v>2.73</v>
       </c>
       <c r="C123" t="n">
-        <v>2.53</v>
+        <v>2.73</v>
       </c>
       <c r="D123" t="n">
-        <v>2.59</v>
+        <v>2.73</v>
       </c>
       <c r="E123" t="n">
-        <v>2.53</v>
+        <v>2.73</v>
       </c>
       <c r="F123" t="n">
-        <v>159607.7583</v>
+        <v>18508.0586</v>
       </c>
       <c r="G123" t="n">
-        <v>2.577999999999998</v>
+        <v>2.579833333333331</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="C124" t="n">
         <v>2.53</v>
       </c>
       <c r="D124" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="E124" t="n">
         <v>2.53</v>
       </c>
       <c r="F124" t="n">
-        <v>1385.5384</v>
+        <v>159607.7583</v>
       </c>
       <c r="G124" t="n">
-        <v>2.576166666666665</v>
+        <v>2.577999999999998</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="C125" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="D125" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="E125" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="F125" t="n">
-        <v>78.9666</v>
+        <v>1385.5384</v>
       </c>
       <c r="G125" t="n">
-        <v>2.573666666666666</v>
+        <v>2.576166666666665</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="C126" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="D126" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="E126" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="F126" t="n">
-        <v>80000</v>
+        <v>78.9666</v>
       </c>
       <c r="G126" t="n">
-        <v>2.574166666666665</v>
+        <v>2.573666666666666</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>2.61</v>
       </c>
       <c r="C127" t="n">
-        <v>2.53</v>
+        <v>2.62</v>
       </c>
       <c r="D127" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E127" t="n">
         <v>2.61</v>
       </c>
-      <c r="E127" t="n">
-        <v>2.53</v>
-      </c>
       <c r="F127" t="n">
-        <v>795022.2461</v>
+        <v>80000</v>
       </c>
       <c r="G127" t="n">
-        <v>2.573499999999999</v>
+        <v>2.574166666666665</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2.58</v>
+        <v>2.61</v>
       </c>
       <c r="C128" t="n">
-        <v>2.7</v>
+        <v>2.53</v>
       </c>
       <c r="D128" t="n">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="E128" t="n">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
       <c r="F128" t="n">
-        <v>36166</v>
+        <v>795022.2461</v>
       </c>
       <c r="G128" t="n">
-        <v>2.574166666666665</v>
+        <v>2.573499999999999</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="C129" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="D129" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="E129" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="F129" t="n">
-        <v>596937.448</v>
+        <v>36166</v>
       </c>
       <c r="G129" t="n">
-        <v>2.575666666666665</v>
+        <v>2.574166666666665</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3742,18 +4131,21 @@
         <v>2.65</v>
       </c>
       <c r="D130" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="E130" t="n">
         <v>2.65</v>
       </c>
       <c r="F130" t="n">
-        <v>569566.6178</v>
+        <v>596937.448</v>
       </c>
       <c r="G130" t="n">
-        <v>2.583333333333333</v>
+        <v>2.575666666666665</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>2.65</v>
       </c>
       <c r="F131" t="n">
-        <v>640688.0377</v>
+        <v>569566.6178</v>
       </c>
       <c r="G131" t="n">
-        <v>2.583499999999999</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="C132" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="D132" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="E132" t="n">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="F132" t="n">
-        <v>734917.231</v>
+        <v>640688.0377</v>
       </c>
       <c r="G132" t="n">
-        <v>2.588333333333333</v>
+        <v>2.583499999999999</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="C133" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="D133" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="E133" t="n">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="F133" t="n">
-        <v>17915.1938</v>
+        <v>734917.231</v>
       </c>
       <c r="G133" t="n">
-        <v>2.593833333333333</v>
+        <v>2.588333333333333</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="C134" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="D134" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="E134" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="F134" t="n">
-        <v>120000</v>
+        <v>17915.1938</v>
       </c>
       <c r="G134" t="n">
-        <v>2.594333333333333</v>
+        <v>2.593833333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="C135" t="n">
         <v>2.61</v>
       </c>
       <c r="D135" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="E135" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="F135" t="n">
-        <v>559210.0669</v>
+        <v>120000</v>
       </c>
       <c r="G135" t="n">
-        <v>2.5955</v>
+        <v>2.594333333333333</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="C136" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="D136" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="E136" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="F136" t="n">
-        <v>19638.4615</v>
+        <v>559210.0669</v>
       </c>
       <c r="G136" t="n">
-        <v>2.596166666666667</v>
+        <v>2.5955</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="C137" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="D137" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="E137" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="F137" t="n">
-        <v>19589.3653</v>
+        <v>19638.4615</v>
       </c>
       <c r="G137" t="n">
-        <v>2.5965</v>
+        <v>2.596166666666667</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>2.55</v>
       </c>
       <c r="F138" t="n">
-        <v>305019.6543</v>
+        <v>19589.3653</v>
       </c>
       <c r="G138" t="n">
-        <v>2.596333333333334</v>
+        <v>2.5965</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="C139" t="n">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="D139" t="n">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="E139" t="n">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="F139" t="n">
-        <v>6245.6729</v>
+        <v>305019.6543</v>
       </c>
       <c r="G139" t="n">
-        <v>2.595166666666667</v>
+        <v>2.596333333333334</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="C140" t="n">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="D140" t="n">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="E140" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="F140" t="n">
-        <v>38461.7884</v>
+        <v>6245.6729</v>
       </c>
       <c r="G140" t="n">
-        <v>2.596500000000001</v>
+        <v>2.595166666666667</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,7 +4444,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="C141" t="n">
         <v>2.65</v>
@@ -4031,15 +4453,18 @@
         <v>2.65</v>
       </c>
       <c r="E141" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="F141" t="n">
-        <v>17373.2075</v>
+        <v>38461.7884</v>
       </c>
       <c r="G141" t="n">
-        <v>2.597833333333334</v>
+        <v>2.596500000000001</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>2.65</v>
       </c>
       <c r="C142" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="D142" t="n">
         <v>2.65</v>
       </c>
       <c r="E142" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="F142" t="n">
-        <v>427120.7969</v>
+        <v>17373.2075</v>
       </c>
       <c r="G142" t="n">
-        <v>2.596833333333334</v>
+        <v>2.597833333333334</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4077,21 +4505,24 @@
         <v>2.65</v>
       </c>
       <c r="C143" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="D143" t="n">
         <v>2.65</v>
       </c>
       <c r="E143" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>427120.7969</v>
       </c>
       <c r="G143" t="n">
-        <v>2.598166666666668</v>
+        <v>2.596833333333334</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4103,21 +4534,24 @@
         <v>2.65</v>
       </c>
       <c r="C144" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="D144" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="E144" t="n">
         <v>2.65</v>
       </c>
       <c r="F144" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>2.602000000000001</v>
+        <v>2.598166666666668</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="C145" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="D145" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="E145" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="F145" t="n">
-        <v>44010.2661</v>
+        <v>5000</v>
       </c>
       <c r="G145" t="n">
-        <v>2.605500000000001</v>
+        <v>2.602000000000001</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="C146" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="D146" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="E146" t="n">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="F146" t="n">
-        <v>10000</v>
+        <v>44010.2661</v>
       </c>
       <c r="G146" t="n">
-        <v>2.606666666666668</v>
+        <v>2.605500000000001</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4181,7 +4621,7 @@
         <v>2.55</v>
       </c>
       <c r="C147" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="D147" t="n">
         <v>2.55</v>
@@ -4190,12 +4630,15 @@
         <v>2.53</v>
       </c>
       <c r="F147" t="n">
-        <v>675754.2426999999</v>
+        <v>10000</v>
       </c>
       <c r="G147" t="n">
-        <v>2.606500000000001</v>
+        <v>2.606666666666668</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4213,15 +4656,18 @@
         <v>2.55</v>
       </c>
       <c r="E148" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="F148" t="n">
-        <v>60000</v>
+        <v>675754.2426999999</v>
       </c>
       <c r="G148" t="n">
-        <v>2.609333333333335</v>
+        <v>2.606500000000001</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="C149" t="n">
         <v>2.55</v>
       </c>
       <c r="D149" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="E149" t="n">
         <v>2.55</v>
       </c>
       <c r="F149" t="n">
-        <v>229740.0145</v>
+        <v>60000</v>
       </c>
       <c r="G149" t="n">
-        <v>2.612333333333335</v>
+        <v>2.609333333333335</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="C150" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="D150" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="E150" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="F150" t="n">
-        <v>234887.6607</v>
+        <v>229740.0145</v>
       </c>
       <c r="G150" t="n">
-        <v>2.612833333333335</v>
+        <v>2.612333333333335</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="C151" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="D151" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="E151" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="F151" t="n">
-        <v>1297086.0826</v>
+        <v>234887.6607</v>
       </c>
       <c r="G151" t="n">
-        <v>2.614000000000002</v>
+        <v>2.612833333333335</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="C152" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="D152" t="n">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="E152" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="F152" t="n">
-        <v>51305.2505</v>
+        <v>1297086.0826</v>
       </c>
       <c r="G152" t="n">
-        <v>2.613333333333335</v>
+        <v>2.614000000000002</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C153" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="D153" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E153" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="F153" t="n">
-        <v>1058526.554536576</v>
+        <v>51305.2505</v>
       </c>
       <c r="G153" t="n">
-        <v>2.615833333333335</v>
+        <v>2.613333333333335</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C154" t="n">
         <v>2.56</v>
       </c>
       <c r="D154" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E154" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F154" t="n">
-        <v>3085865.5799</v>
+        <v>1058526.554536576</v>
       </c>
       <c r="G154" t="n">
-        <v>2.617500000000001</v>
+        <v>2.615833333333335</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4389,21 +4853,24 @@
         <v>2.56</v>
       </c>
       <c r="C155" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="D155" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="E155" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F155" t="n">
-        <v>5285765.7294</v>
+        <v>3085865.5799</v>
       </c>
       <c r="G155" t="n">
-        <v>2.617000000000002</v>
+        <v>2.617500000000001</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4415,21 +4882,24 @@
         <v>2.56</v>
       </c>
       <c r="C156" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="D156" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="E156" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F156" t="n">
-        <v>10437315.9715</v>
+        <v>5285765.7294</v>
       </c>
       <c r="G156" t="n">
-        <v>2.616666666666668</v>
+        <v>2.617000000000002</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="C157" t="n">
         <v>2.57</v>
       </c>
       <c r="D157" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E157" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F157" t="n">
-        <v>10465601.3806</v>
+        <v>10437315.9715</v>
       </c>
       <c r="G157" t="n">
-        <v>2.616333333333335</v>
+        <v>2.616666666666668</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C158" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="D158" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="E158" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F158" t="n">
-        <v>6730903.3089</v>
+        <v>10465601.3806</v>
       </c>
       <c r="G158" t="n">
-        <v>2.616500000000002</v>
+        <v>2.616333333333335</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C159" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="D159" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="E159" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="F159" t="n">
-        <v>6320374.6878</v>
+        <v>6730903.3089</v>
       </c>
       <c r="G159" t="n">
-        <v>2.616166666666668</v>
+        <v>2.616500000000002</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,7 +4995,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C160" t="n">
         <v>2.57</v>
@@ -4525,15 +5004,18 @@
         <v>2.57</v>
       </c>
       <c r="E160" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="F160" t="n">
-        <v>11175888.4853</v>
+        <v>6320374.6878</v>
       </c>
       <c r="G160" t="n">
         <v>2.616166666666668</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,10 +5024,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="C161" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="D161" t="n">
         <v>2.57</v>
@@ -4554,12 +5036,15 @@
         <v>2.56</v>
       </c>
       <c r="F161" t="n">
-        <v>7071969.4355</v>
+        <v>11175888.4853</v>
       </c>
       <c r="G161" t="n">
-        <v>2.617500000000001</v>
+        <v>2.616166666666668</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4571,21 +5056,24 @@
         <v>2.57</v>
       </c>
       <c r="C162" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="D162" t="n">
         <v>2.57</v>
       </c>
       <c r="E162" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F162" t="n">
-        <v>8967182.1472</v>
+        <v>7071969.4355</v>
       </c>
       <c r="G162" t="n">
-        <v>2.617000000000002</v>
+        <v>2.617500000000001</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>2.57</v>
       </c>
       <c r="F163" t="n">
-        <v>11437480.2593</v>
+        <v>8967182.1472</v>
       </c>
       <c r="G163" t="n">
-        <v>2.616333333333335</v>
+        <v>2.617000000000002</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4623,21 +5114,24 @@
         <v>2.57</v>
       </c>
       <c r="C164" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="D164" t="n">
         <v>2.57</v>
       </c>
       <c r="E164" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="F164" t="n">
-        <v>9189508.9772</v>
+        <v>11437480.2593</v>
       </c>
       <c r="G164" t="n">
-        <v>2.615000000000002</v>
+        <v>2.616333333333335</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C165" t="n">
         <v>2.56</v>
       </c>
       <c r="D165" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E165" t="n">
         <v>2.56</v>
       </c>
       <c r="F165" t="n">
-        <v>2341449.6459</v>
+        <v>9189508.9772</v>
       </c>
       <c r="G165" t="n">
-        <v>2.616500000000002</v>
+        <v>2.615000000000002</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4675,21 +5172,24 @@
         <v>2.56</v>
       </c>
       <c r="C166" t="n">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="D166" t="n">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="E166" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="F166" t="n">
-        <v>3336544.4401</v>
+        <v>2341449.6459</v>
       </c>
       <c r="G166" t="n">
-        <v>2.616166666666668</v>
+        <v>2.616500000000002</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4701,21 +5201,24 @@
         <v>2.56</v>
       </c>
       <c r="C167" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="D167" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="E167" t="n">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="F167" t="n">
-        <v>4755742.7677</v>
+        <v>3336544.4401</v>
       </c>
       <c r="G167" t="n">
-        <v>2.614166666666668</v>
+        <v>2.616166666666668</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="C168" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="D168" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="E168" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="F168" t="n">
-        <v>6873792.4197</v>
+        <v>4755742.7677</v>
       </c>
       <c r="G168" t="n">
-        <v>2.611000000000002</v>
+        <v>2.614166666666668</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C169" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="D169" t="n">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="E169" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="F169" t="n">
-        <v>6139114.234</v>
+        <v>6873792.4197</v>
       </c>
       <c r="G169" t="n">
-        <v>2.608166666666668</v>
+        <v>2.611000000000002</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="C170" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="D170" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="E170" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F170" t="n">
-        <v>9168806.6709</v>
+        <v>6139114.234</v>
       </c>
       <c r="G170" t="n">
-        <v>2.605500000000001</v>
+        <v>2.608166666666668</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4805,21 +5317,24 @@
         <v>2.55</v>
       </c>
       <c r="C171" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D171" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E171" t="n">
         <v>2.55</v>
       </c>
       <c r="F171" t="n">
-        <v>6264859.6888</v>
+        <v>9168806.6709</v>
       </c>
       <c r="G171" t="n">
-        <v>2.607333333333335</v>
+        <v>2.605500000000001</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C172" t="n">
         <v>2.58</v>
       </c>
-      <c r="C172" t="n">
-        <v>2.56</v>
-      </c>
       <c r="D172" t="n">
-        <v>2.63</v>
+        <v>2.59</v>
       </c>
       <c r="E172" t="n">
         <v>2.55</v>
       </c>
       <c r="F172" t="n">
-        <v>12366329.247</v>
+        <v>6264859.6888</v>
       </c>
       <c r="G172" t="n">
-        <v>2.604166666666669</v>
+        <v>2.607333333333335</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="C173" t="n">
         <v>2.56</v>
       </c>
       <c r="D173" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="E173" t="n">
         <v>2.55</v>
       </c>
       <c r="F173" t="n">
-        <v>9139260.0451</v>
+        <v>12366329.247</v>
       </c>
       <c r="G173" t="n">
-        <v>2.604000000000002</v>
+        <v>2.604166666666669</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4883,21 +5404,24 @@
         <v>2.57</v>
       </c>
       <c r="C174" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="D174" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="E174" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="F174" t="n">
-        <v>3043182.5867</v>
+        <v>9139260.0451</v>
       </c>
       <c r="G174" t="n">
-        <v>2.601000000000002</v>
+        <v>2.604000000000002</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C175" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="D175" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="E175" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F175" t="n">
-        <v>17969.3803</v>
+        <v>3043182.5867</v>
       </c>
       <c r="G175" t="n">
-        <v>2.599833333333335</v>
+        <v>2.601000000000002</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="C176" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="D176" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="E176" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="F176" t="n">
-        <v>6238547.2119</v>
+        <v>17969.3803</v>
       </c>
       <c r="G176" t="n">
-        <v>2.596833333333335</v>
+        <v>2.599833333333335</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="C177" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="D177" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="E177" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="F177" t="n">
-        <v>9777591.714400001</v>
+        <v>6238547.2119</v>
       </c>
       <c r="G177" t="n">
-        <v>2.592333333333335</v>
+        <v>2.596833333333335</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="C178" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="D178" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="E178" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="F178" t="n">
-        <v>4769887.1294</v>
+        <v>9777591.714400001</v>
       </c>
       <c r="G178" t="n">
-        <v>2.588166666666668</v>
+        <v>2.592333333333335</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="C179" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="D179" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="E179" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F179" t="n">
-        <v>6210731.8327</v>
+        <v>4769887.1294</v>
       </c>
       <c r="G179" t="n">
-        <v>2.587500000000001</v>
+        <v>2.588166666666668</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5039,21 +5578,24 @@
         <v>2.57</v>
       </c>
       <c r="C180" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="D180" t="n">
         <v>2.57</v>
       </c>
       <c r="E180" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F180" t="n">
-        <v>10455882.0958</v>
+        <v>6210731.8327</v>
       </c>
       <c r="G180" t="n">
-        <v>2.583833333333335</v>
+        <v>2.587500000000001</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C181" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="D181" t="n">
         <v>2.57</v>
       </c>
       <c r="E181" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="F181" t="n">
-        <v>8488254.392899999</v>
+        <v>10455882.0958</v>
       </c>
       <c r="G181" t="n">
-        <v>2.581166666666668</v>
+        <v>2.583833333333335</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="C182" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D182" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E182" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F182" t="n">
-        <v>10304328.697</v>
+        <v>8488254.392899999</v>
       </c>
       <c r="G182" t="n">
-        <v>2.578666666666669</v>
+        <v>2.581166666666668</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C183" t="n">
         <v>2.58</v>
       </c>
-      <c r="C183" t="n">
-        <v>2.71</v>
-      </c>
       <c r="D183" t="n">
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="E183" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="F183" t="n">
-        <v>4372745.2195</v>
+        <v>10304328.697</v>
       </c>
       <c r="G183" t="n">
-        <v>2.581666666666669</v>
+        <v>2.578666666666669</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C184" t="n">
         <v>2.71</v>
       </c>
-      <c r="C184" t="n">
-        <v>2.55</v>
-      </c>
       <c r="D184" t="n">
-        <v>2.79</v>
+        <v>2.71</v>
       </c>
       <c r="E184" t="n">
         <v>2.54</v>
       </c>
       <c r="F184" t="n">
-        <v>5037717.9937</v>
+        <v>4372745.2195</v>
       </c>
       <c r="G184" t="n">
-        <v>2.582000000000002</v>
+        <v>2.581666666666669</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2.64</v>
+        <v>2.71</v>
       </c>
       <c r="C185" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="D185" t="n">
-        <v>2.64</v>
+        <v>2.79</v>
       </c>
       <c r="E185" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="F185" t="n">
-        <v>2301799.8543</v>
+        <v>5037717.9937</v>
       </c>
       <c r="G185" t="n">
-        <v>2.582833333333335</v>
+        <v>2.582000000000002</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2.59</v>
+        <v>2.64</v>
       </c>
       <c r="C186" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="D186" t="n">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="E186" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="F186" t="n">
-        <v>11157577.9322</v>
+        <v>2301799.8543</v>
       </c>
       <c r="G186" t="n">
-        <v>2.582666666666669</v>
+        <v>2.582833333333335</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5221,21 +5781,24 @@
         <v>2.59</v>
       </c>
       <c r="C187" t="n">
-        <v>2.58</v>
+        <v>2.61</v>
       </c>
       <c r="D187" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="E187" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="F187" t="n">
-        <v>8804696.7916</v>
+        <v>11157577.9322</v>
       </c>
       <c r="G187" t="n">
-        <v>2.583500000000002</v>
+        <v>2.582666666666669</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C188" t="n">
         <v>2.58</v>
       </c>
-      <c r="C188" t="n">
-        <v>2.59</v>
-      </c>
       <c r="D188" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="E188" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="F188" t="n">
-        <v>7933160.2407</v>
+        <v>8804696.7916</v>
       </c>
       <c r="G188" t="n">
-        <v>2.581666666666669</v>
+        <v>2.583500000000002</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5273,21 +5839,24 @@
         <v>2.58</v>
       </c>
       <c r="C189" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="D189" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="E189" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F189" t="n">
-        <v>10049274.2341</v>
+        <v>7933160.2407</v>
       </c>
       <c r="G189" t="n">
-        <v>2.580833333333336</v>
+        <v>2.581666666666669</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,544 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="C190" t="n">
         <v>2.6</v>
       </c>
       <c r="D190" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="E190" t="n">
         <v>2.58</v>
       </c>
       <c r="F190" t="n">
-        <v>7160276.4634</v>
+        <v>10049274.2341</v>
       </c>
       <c r="G190" t="n">
-        <v>2.580000000000002</v>
+        <v>2.580833333333336</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D191" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E191" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F191" t="n">
-        <v>10533976.2152</v>
-      </c>
-      <c r="G191" t="n">
-        <v>2.579333333333336</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D192" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E192" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F192" t="n">
-        <v>8430615.814099999</v>
-      </c>
-      <c r="G192" t="n">
-        <v>2.578333333333335</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D193" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E193" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F193" t="n">
-        <v>4226793.7596</v>
-      </c>
-      <c r="G193" t="n">
-        <v>2.577833333333336</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C194" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D194" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E194" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F194" t="n">
-        <v>6363162.3447</v>
-      </c>
-      <c r="G194" t="n">
-        <v>2.577166666666669</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C195" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="D195" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="E195" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="F195" t="n">
-        <v>5798330.8242</v>
-      </c>
-      <c r="G195" t="n">
-        <v>2.577666666666668</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D196" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E196" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F196" t="n">
-        <v>2356370.7516</v>
-      </c>
-      <c r="G196" t="n">
-        <v>2.577166666666668</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="D197" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E197" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="F197" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G197" t="n">
-        <v>2.576500000000001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="D198" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="E198" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="F198" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G198" t="n">
-        <v>2.576166666666667</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D199" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E199" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F199" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G199" t="n">
-        <v>2.577166666666668</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D200" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E200" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F200" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G200" t="n">
-        <v>2.575500000000001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D201" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="E201" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F201" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G201" t="n">
-        <v>2.576000000000001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="D202" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="E202" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="F202" t="n">
-        <v>240000</v>
-      </c>
-      <c r="G202" t="n">
-        <v>2.576500000000001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="D203" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E203" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F203" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G203" t="n">
-        <v>2.574833333333335</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D204" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E204" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F204" t="n">
-        <v>516076</v>
-      </c>
-      <c r="G204" t="n">
-        <v>2.573000000000001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C205" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D205" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E205" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F205" t="n">
-        <v>649013.9</v>
-      </c>
-      <c r="G205" t="n">
-        <v>2.571833333333335</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D206" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E206" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F206" t="n">
-        <v>153398.3081</v>
-      </c>
-      <c r="G206" t="n">
-        <v>2.572500000000001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D207" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E207" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F207" t="n">
-        <v>77453.58289999999</v>
-      </c>
-      <c r="G207" t="n">
-        <v>2.572833333333334</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D208" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E208" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F208" t="n">
-        <v>640000</v>
-      </c>
-      <c r="G208" t="n">
-        <v>2.573333333333335</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D209" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E209" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F209" t="n">
-        <v>220000</v>
-      </c>
-      <c r="G209" t="n">
-        <v>2.573833333333334</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="D210" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E210" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="F210" t="n">
-        <v>10</v>
-      </c>
-      <c r="G210" t="n">
-        <v>2.576333333333334</v>
-      </c>
-      <c r="H210" t="n">
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
